--- a/Codes/Main/Excel/Pre_parametrage/overview_num_layers.xlsx
+++ b/Codes/Main/Excel/Pre_parametrage/overview_num_layers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,22 +441,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Layers</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Regularizer</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Test_accuracy</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Regularizer</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Loss</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Layers</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -467,24 +467,24 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8403361439704895</v>
+        <v>0.7983193397521973</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4895397424697876</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>&lt;tensorflow.python.keras.regularizers.L1 object at 0x0000025D2333AAC0&gt;</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>0.7652059197425842</v>
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8131257295608521</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>&lt;tensorflow.python.keras.regularizers.L1 object at 0x00000200E36CE460&gt;</t>
+        </is>
       </c>
       <c r="F2" t="n">
-        <v>8</v>
+        <v>0.5104602575302124</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -494,24 +494,24 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.799369752407074</v>
+        <v>0.855042040348053</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4979079365730286</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>&lt;tensorflow.python.keras.regularizers.L1 object at 0x0000025D2333AAC0&gt;</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>0.8234782218933105</v>
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7296810150146484</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>&lt;tensorflow.python.keras.regularizers.L1 object at 0x00000200E36CE460&gt;</t>
+        </is>
       </c>
       <c r="F3" t="n">
-        <v>10</v>
+        <v>0.5188284516334534</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -521,24 +521,24 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8844537734985352</v>
+        <v>0.7457982897758484</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5146443247795105</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>&lt;tensorflow.python.keras.regularizers.L1 object at 0x0000025D2333AAC0&gt;</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>0.6737772822380066</v>
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.03930401802063</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>&lt;tensorflow.python.keras.regularizers.L1 object at 0x00000200E36CE460&gt;</t>
+        </is>
       </c>
       <c r="F4" t="n">
-        <v>7</v>
+        <v>0.5271966457366943</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -548,24 +548,24 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8203781247138977</v>
+        <v>0.8350840210914612</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5146443247795105</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>&lt;tensorflow.python.keras.regularizers.L1 object at 0x0000025D2333AAC0&gt;</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>0.7876574993133545</v>
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.765049159526825</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>&lt;tensorflow.python.keras.regularizers.L1 object at 0x00000200E36CE460&gt;</t>
+        </is>
       </c>
       <c r="F5" t="n">
-        <v>9</v>
+        <v>0.5397489666938782</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -575,24 +575,24 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8466386795043945</v>
+        <v>0.7174369692802429</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5230125784873962</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>&lt;tensorflow.python.keras.regularizers.L1 object at 0x0000025D2333AAC0&gt;</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>0.7540766596794128</v>
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9489074945449829</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>&lt;tensorflow.python.keras.regularizers.L1 object at 0x00000200E36CE460&gt;</t>
+        </is>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>0.5439330339431763</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -602,24 +602,24 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7521008253097534</v>
+        <v>0.8046218752861023</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5271966457366943</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>&lt;tensorflow.python.keras.regularizers.L1 object at 0x0000025D2333AAC0&gt;</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>0.8956997394561768</v>
+        <v>9</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8564008474349976</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>&lt;tensorflow.python.keras.regularizers.L1 object at 0x00000200E36CE460&gt;</t>
+        </is>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>0.5481171607971191</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -629,53 +629,26 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7962185144424438</v>
+        <v>0.8655462265014648</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5355648398399353</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>&lt;tensorflow.python.keras.regularizers.L1 object at 0x0000025D2333AAC0&gt;</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>0.7667716145515442</v>
+        <v>8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7592787146568298</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>&lt;tensorflow.python.keras.regularizers.L1 object at 0x00000200E36CE460&gt;</t>
+        </is>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>0.5523012280464172</v>
       </c>
       <c r="G8" t="inlineStr">
-        <is>
-          <t>adam</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.8697478771209717</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.560669481754303</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>&lt;tensorflow.python.keras.regularizers.L1 object at 0x0000025D2333AAC0&gt;</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>0.7111201286315918</v>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
-      </c>
-      <c r="G9" t="inlineStr">
         <is>
           <t>adam</t>
         </is>
